--- a/data_xlsx/中国_官方储备资产_外汇储备.xlsx
+++ b/data_xlsx/中国_官方储备资产_外汇储备.xlsx
@@ -2338,8 +2338,16 @@
         <v>31765.08</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="3" t="inlineStr">
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>45107.0</v>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>31929.98</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>

--- a/data_xlsx/中国_官方储备资产_外汇储备.xlsx
+++ b/data_xlsx/中国_官方储备资产_外汇储备.xlsx
@@ -135,7 +135,7 @@
         <v>36707.0</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1585.68</v>
+        <v>1585.6799999999998</v>
       </c>
     </row>
     <row r="8">
@@ -167,7 +167,7 @@
         <v>36830.0</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1613.44</v>
+        <v>1613.4399999999998</v>
       </c>
     </row>
     <row r="12">
@@ -255,7 +255,7 @@
         <v>37164.0</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1957.64</v>
+        <v>1957.6399999999999</v>
       </c>
     </row>
     <row r="23">
@@ -263,7 +263,7 @@
         <v>37195.0</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2030.29</v>
+        <v>2030.2900000000002</v>
       </c>
     </row>
     <row r="24">
@@ -311,7 +311,7 @@
         <v>37376.0</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2338.24</v>
+        <v>2338.2400000000002</v>
       </c>
     </row>
     <row r="30">
@@ -359,7 +359,7 @@
         <v>37560.0</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2655.39</v>
+        <v>2655.3900000000003</v>
       </c>
     </row>
     <row r="36">
@@ -375,7 +375,7 @@
         <v>37621.0</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2864.07</v>
+        <v>2864.0699999999997</v>
       </c>
     </row>
     <row r="38">
@@ -407,7 +407,7 @@
         <v>37741.0</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>3262.91</v>
+        <v>3262.9100000000003</v>
       </c>
     </row>
     <row r="42">
@@ -455,7 +455,7 @@
         <v>37925.0</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>4009.92</v>
+        <v>4009.9199999999996</v>
       </c>
     </row>
     <row r="48">
@@ -463,7 +463,7 @@
         <v>37955.0</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>4203.61</v>
+        <v>4203.610000000001</v>
       </c>
     </row>
     <row r="49">
@@ -471,7 +471,7 @@
         <v>37986.0</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>4032.51</v>
+        <v>4032.5099999999998</v>
       </c>
     </row>
     <row r="50">
@@ -511,7 +511,7 @@
         <v>38138.0</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>4585.6</v>
+        <v>4585.599999999999</v>
       </c>
     </row>
     <row r="55">
@@ -527,7 +527,7 @@
         <v>38199.0</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>4829.82</v>
+        <v>4829.820000000001</v>
       </c>
     </row>
     <row r="57">
@@ -535,7 +535,7 @@
         <v>38230.0</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>4961.69</v>
+        <v>4961.6900000000005</v>
       </c>
     </row>
     <row r="58">
@@ -559,7 +559,7 @@
         <v>38321.0</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>5738.82</v>
+        <v>5738.820000000001</v>
       </c>
     </row>
     <row r="61">
@@ -583,7 +583,7 @@
         <v>38411.0</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>6426.1</v>
+        <v>6426.099999999999</v>
       </c>
     </row>
     <row r="64">
@@ -591,7 +591,7 @@
         <v>38442.0</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>6591.44</v>
+        <v>6591.4400000000005</v>
       </c>
     </row>
     <row r="65">
@@ -615,7 +615,7 @@
         <v>38533.0</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>7109.73</v>
+        <v>7109.7300000000005</v>
       </c>
     </row>
     <row r="68">
@@ -639,7 +639,7 @@
         <v>38625.0</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>7690.04</v>
+        <v>7690.040000000001</v>
       </c>
     </row>
     <row r="71">
@@ -655,7 +655,7 @@
         <v>38686.0</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>7942.23</v>
+        <v>7942.2300000000005</v>
       </c>
     </row>
     <row r="73">
@@ -687,7 +687,7 @@
         <v>38807.0</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>8750.7</v>
+        <v>8750.699999999999</v>
       </c>
     </row>
     <row r="77">
@@ -703,7 +703,7 @@
         <v>38868.0</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>9250.2</v>
+        <v>9250.199999999999</v>
       </c>
     </row>
     <row r="79">
@@ -711,7 +711,7 @@
         <v>38898.0</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>9411.15</v>
+        <v>9411.150000000001</v>
       </c>
     </row>
     <row r="80">
@@ -775,7 +775,7 @@
         <v>39141.0</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>11573.72</v>
+        <v>11573.720000000001</v>
       </c>
     </row>
     <row r="88">
@@ -799,7 +799,7 @@
         <v>39233.0</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>12926.71</v>
+        <v>12926.710000000001</v>
       </c>
     </row>
     <row r="91">
@@ -823,7 +823,7 @@
         <v>39325.0</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>14086.4119</v>
+        <v>14086.411900000001</v>
       </c>
     </row>
     <row r="94">
@@ -847,7 +847,7 @@
         <v>39416.0</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>14969.0583</v>
+        <v>14969.058299999999</v>
       </c>
     </row>
     <row r="97">
@@ -855,7 +855,7 @@
         <v>39447.0</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>15282.4911</v>
+        <v>15282.491100000001</v>
       </c>
     </row>
     <row r="98">
@@ -927,7 +927,7 @@
         <v>39721.0</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>19055.85</v>
+        <v>19055.850000000002</v>
       </c>
     </row>
     <row r="107">
@@ -959,7 +959,7 @@
         <v>39844.0</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>19134.56</v>
+        <v>19134.559999999998</v>
       </c>
     </row>
     <row r="111">
@@ -1175,7 +1175,7 @@
         <v>40663.0</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>31458.43</v>
+        <v>31458.430000000004</v>
       </c>
     </row>
     <row r="138">
@@ -1183,7 +1183,7 @@
         <v>40694.0</v>
       </c>
       <c r="B138" s="2" t="n">
-        <v>31659.97</v>
+        <v>31659.969999999998</v>
       </c>
     </row>
     <row r="139">
@@ -1207,7 +1207,7 @@
         <v>40786.0</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>32624.99</v>
+        <v>32624.989999999998</v>
       </c>
     </row>
     <row r="142">
@@ -1215,7 +1215,7 @@
         <v>40816.0</v>
       </c>
       <c r="B142" s="2" t="n">
-        <v>32016.83</v>
+        <v>32016.829999999998</v>
       </c>
     </row>
     <row r="143">
@@ -1239,7 +1239,7 @@
         <v>40908.0</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>31811.48</v>
+        <v>31811.479999999996</v>
       </c>
     </row>
     <row r="146">
@@ -1279,7 +1279,7 @@
         <v>41060.0</v>
       </c>
       <c r="B150" s="2" t="n">
-        <v>32061.09</v>
+        <v>32061.089999999997</v>
       </c>
     </row>
     <row r="151">
@@ -1311,7 +1311,7 @@
         <v>41182.0</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>32850.95</v>
+        <v>32850.950000000004</v>
       </c>
     </row>
     <row r="155">
@@ -1423,7 +1423,7 @@
         <v>41608.0</v>
       </c>
       <c r="B168" s="2" t="n">
-        <v>37894.51</v>
+        <v>37894.509999999995</v>
       </c>
     </row>
     <row r="169">
@@ -1463,7 +1463,7 @@
         <v>41759.0</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>39787.95</v>
+        <v>39787.950000000004</v>
       </c>
     </row>
     <row r="174">
@@ -1471,7 +1471,7 @@
         <v>41790.0</v>
       </c>
       <c r="B174" s="2" t="n">
-        <v>39838.9</v>
+        <v>39838.899999999994</v>
       </c>
     </row>
     <row r="175">
@@ -1479,7 +1479,7 @@
         <v>41820.0</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>39932.13</v>
+        <v>39932.130000000005</v>
       </c>
     </row>
     <row r="176">
@@ -1551,7 +1551,7 @@
         <v>42094.0</v>
       </c>
       <c r="B184" s="2" t="n">
-        <v>37300.38</v>
+        <v>37300.380000000005</v>
       </c>
     </row>
     <row r="185">
@@ -1599,7 +1599,7 @@
         <v>42277.0</v>
       </c>
       <c r="B190" s="2" t="n">
-        <v>35141.2</v>
+        <v>35141.200000000004</v>
       </c>
     </row>
     <row r="191">
@@ -1615,7 +1615,7 @@
         <v>42338.0</v>
       </c>
       <c r="B192" s="2" t="n">
-        <v>34382.84</v>
+        <v>34382.840000000004</v>
       </c>
     </row>
     <row r="193">
@@ -1631,7 +1631,7 @@
         <v>42400.0</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>32308.93</v>
+        <v>32308.929999999997</v>
       </c>
     </row>
     <row r="195">
@@ -1639,7 +1639,7 @@
         <v>42429.0</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>32023.21</v>
+        <v>32023.210000000003</v>
       </c>
     </row>
     <row r="196">
@@ -1671,7 +1671,7 @@
         <v>42551.0</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>32051.62</v>
+        <v>32051.620000000003</v>
       </c>
     </row>
     <row r="200">
@@ -1679,7 +1679,7 @@
         <v>42582.0</v>
       </c>
       <c r="B200" s="2" t="n">
-        <v>32010.57</v>
+        <v>32010.570000000003</v>
       </c>
     </row>
     <row r="201">
@@ -1687,7 +1687,7 @@
         <v>42613.0</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>31851.67</v>
+        <v>31851.670000000002</v>
       </c>
     </row>
     <row r="202">
@@ -1727,7 +1727,7 @@
         <v>42766.0</v>
       </c>
       <c r="B206" s="2" t="n">
-        <v>29982.04</v>
+        <v>29982.039999999997</v>
       </c>
     </row>
     <row r="207">
@@ -1759,7 +1759,7 @@
         <v>42886.0</v>
       </c>
       <c r="B210" s="2" t="n">
-        <v>30535.67</v>
+        <v>30535.670000000002</v>
       </c>
     </row>
     <row r="211">
@@ -1815,7 +1815,7 @@
         <v>43100.0</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>31399.49</v>
+        <v>31399.489999999998</v>
       </c>
     </row>
     <row r="218">
@@ -1831,7 +1831,7 @@
         <v>43159.0</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>31344.82</v>
+        <v>31344.820000000003</v>
       </c>
     </row>
     <row r="220">
@@ -1839,7 +1839,7 @@
         <v>43190.0</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>31428.2</v>
+        <v>31428.199999999997</v>
       </c>
     </row>
     <row r="221">
@@ -1847,7 +1847,7 @@
         <v>43220.0</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>31248.52</v>
+        <v>31248.520000000004</v>
       </c>
     </row>
     <row r="222">
@@ -1871,7 +1871,7 @@
         <v>43312.0</v>
       </c>
       <c r="B224" s="2" t="n">
-        <v>31179.46</v>
+        <v>31179.460000000003</v>
       </c>
     </row>
     <row r="225">
@@ -1895,7 +1895,7 @@
         <v>43404.0</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>30530.98</v>
+        <v>30530.979999999996</v>
       </c>
     </row>
     <row r="228">
@@ -1903,7 +1903,7 @@
         <v>43434.0</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>30616.97</v>
+        <v>30616.969999999998</v>
       </c>
     </row>
     <row r="229">
@@ -1999,7 +1999,7 @@
         <v>43799.0</v>
       </c>
       <c r="B240" s="2" t="n">
-        <v>30955.91</v>
+        <v>30955.910000000003</v>
       </c>
     </row>
     <row r="241">
@@ -2023,7 +2023,7 @@
         <v>43890.0</v>
       </c>
       <c r="B243" s="2" t="n">
-        <v>31067.18</v>
+        <v>31067.179999999997</v>
       </c>
     </row>
     <row r="244">
@@ -2047,7 +2047,7 @@
         <v>43982.0</v>
       </c>
       <c r="B246" s="2" t="n">
-        <v>31016.92</v>
+        <v>31016.920000000002</v>
       </c>
     </row>
     <row r="247">
@@ -2079,7 +2079,7 @@
         <v>44104.0</v>
       </c>
       <c r="B250" s="2" t="n">
-        <v>31425.62</v>
+        <v>31425.620000000003</v>
       </c>
     </row>
     <row r="251">
@@ -2087,7 +2087,7 @@
         <v>44135.0</v>
       </c>
       <c r="B251" s="2" t="n">
-        <v>31279.82</v>
+        <v>31279.819999999996</v>
       </c>
     </row>
     <row r="252">
@@ -2103,7 +2103,7 @@
         <v>44196.0</v>
       </c>
       <c r="B253" s="2" t="n">
-        <v>32165.22</v>
+        <v>32165.219999999998</v>
       </c>
     </row>
     <row r="254">
@@ -2119,7 +2119,7 @@
         <v>44255.0</v>
       </c>
       <c r="B255" s="2" t="n">
-        <v>32049.94</v>
+        <v>32049.940000000002</v>
       </c>
     </row>
     <row r="256">
@@ -2127,7 +2127,7 @@
         <v>44286.0</v>
       </c>
       <c r="B256" s="2" t="n">
-        <v>31700.29</v>
+        <v>31700.289999999997</v>
       </c>
     </row>
     <row r="257">
@@ -2183,7 +2183,7 @@
         <v>44500.0</v>
       </c>
       <c r="B263" s="2" t="n">
-        <v>32176.14</v>
+        <v>32176.140000000003</v>
       </c>
     </row>
     <row r="264">
@@ -2207,7 +2207,7 @@
         <v>44592.0</v>
       </c>
       <c r="B266" s="2" t="n">
-        <v>32216.32</v>
+        <v>32216.320000000003</v>
       </c>
     </row>
     <row r="267">
@@ -2223,7 +2223,7 @@
         <v>44651.0</v>
       </c>
       <c r="B268" s="2" t="n">
-        <v>31879.94</v>
+        <v>31879.940000000002</v>
       </c>
     </row>
     <row r="269">
@@ -2231,7 +2231,7 @@
         <v>44681.0</v>
       </c>
       <c r="B269" s="2" t="n">
-        <v>31197.2</v>
+        <v>31197.199999999997</v>
       </c>
     </row>
     <row r="270">
@@ -2239,7 +2239,7 @@
         <v>44712.0</v>
       </c>
       <c r="B270" s="2" t="n">
-        <v>31277.8</v>
+        <v>31277.800000000003</v>
       </c>
     </row>
     <row r="271">
@@ -2263,7 +2263,7 @@
         <v>44804.0</v>
       </c>
       <c r="B273" s="2" t="n">
-        <v>30548.81</v>
+        <v>30548.809999999998</v>
       </c>
     </row>
     <row r="274">
@@ -2279,7 +2279,7 @@
         <v>44865.0</v>
       </c>
       <c r="B275" s="2" t="n">
-        <v>30524.27</v>
+        <v>30524.269999999997</v>
       </c>
     </row>
     <row r="276">
@@ -2311,7 +2311,7 @@
         <v>44985.0</v>
       </c>
       <c r="B279" s="2" t="n">
-        <v>31331.53</v>
+        <v>31331.530000000002</v>
       </c>
     </row>
     <row r="280">
@@ -2346,8 +2346,16 @@
         <v>31929.98</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="3" t="inlineStr">
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>32042.7</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
